--- a/datafiles/userMgtData.xlsx
+++ b/datafiles/userMgtData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="creUser" sheetId="30" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="171">
   <si>
     <t>test_num</t>
   </si>
@@ -341,6 +341,9 @@
 }</t>
   </si>
   <si>
+    <t>用户姓名为1-32位字符</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -529,6 +532,9 @@
 }</t>
   </si>
   <si>
+    <t>确认密码不能为空</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -555,8 +561,8 @@
   </si>
   <si>
     <t>{
-    "username":"pwIsLessThan6",
-    "realname":"密码小于6位",
+    "username":"confPwIsLessThan6",
+    "realname":"确认密码小于6位",
     "email":"aa@163.com",
     "phone":"13811561569",
     "description":"自动化脚本创建的用户数据",
@@ -592,7 +598,7 @@
   </si>
   <si>
     <t>{
-    "username":"pwIsOver18",
+    "username":"confPwIsOver18",
     "realname":"密码大于18位",
     "email":"aa@163.com",
     "phone":"13811561569",
@@ -635,9 +641,12 @@
     "phone":"",
     "description":"自动化脚本创建的用户数据",
     "state":"1",
-    "password":"111122223333444455",
-    "confirmPassword":"11112222333344445555"
-}</t>
+    "password":"11112222",
+    "confirmPassword":"11112222"
+}</t>
+  </si>
+  <si>
+    <t>手机号不能为空</t>
   </si>
   <si>
     <r>
@@ -672,9 +681,12 @@
     "phone":"错误手机号！@￥#",
     "description":"自动化脚本创建的用户数据",
     "state":"1",
-    "password":"111122223333444455",
-    "confirmPassword":"11112222333344445555"
-}</t>
+    "password":"11112222",
+    "confirmPassword":"11112222"
+}</t>
+  </si>
+  <si>
+    <t>手机号格式错误</t>
   </si>
   <si>
     <r>
@@ -709,8 +721,8 @@
     "phone":"11111111111",
     "description":"自动化脚本创建的用户数据",
     "state":"1",
-    "password":"111122223333444455",
-    "confirmPassword":"11112222333344445555"
+    "password":"11112222",
+    "confirmPassword":"11112222"
 }</t>
   </si>
   <si>
@@ -746,8 +758,8 @@
     "phone":"1381111111",
     "description":"自动化脚本创建的用户数据",
     "state":"1",
-    "password":"111122223333444455",
-    "confirmPassword":"11112222333344445555"
+    "password":"11112222",
+    "confirmPassword":"11112222"
 }</t>
   </si>
   <si>
@@ -921,14 +933,14 @@
     </r>
   </si>
   <si>
-    <t>用户管理-新建用户-描述等于100个字符</t>
+    <t>用户管理-新建用户-描述等于200个字符</t>
   </si>
   <si>
     <t>{
     "username":"DesIs100",
     "realname":"描述为100个字符",    "email":"DesIs100@udsafe.com.cn",
     "phone":"13811111111",
-    "description":"自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100字符总数",
+    "description":"自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200",
     "state":"1",
     "password":"11112222",
     "confirmPassword":"11112222"
@@ -938,14 +950,14 @@
     <t>027</t>
   </si>
   <si>
-    <t>用户管理-新建用户-描述超过100个字符</t>
-  </si>
-  <si>
-    <t>{
-    "username":"DesIsOver100",
-    "realname":"描述超过100个字符",    "email":"DesIsOver100@udsafe.com.cn",
+    <t>用户管理-新建用户-描述超过200个字符</t>
+  </si>
+  <si>
+    <t>{
+    "username":"DesIsOver200",
+    "realname":"描述超过100个字符",    "email":"DesIsOver200@udsafe.com.cn",
     "phone":"13811111111",
-    "description":"自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100",
+    "description":"自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200",
     "state":"1",
     "password":"11112222",
     "confirmPassword":"11112222"
@@ -1098,9 +1110,6 @@
 }</t>
   </si>
   <si>
-    <t>手机号格式错误</t>
-  </si>
-  <si>
     <t>008</t>
   </si>
   <si>
@@ -1182,25 +1191,25 @@
     <t>014</t>
   </si>
   <si>
-    <t>用户管理-编辑用户-描述等于100个字符</t>
-  </si>
-  <si>
-    <t>{
-    "username":"DesIsOver100",
-    "realname":"描述超过100个字符",    "email":"DesIsOver100@udsafe.com.cn",
+    <t>用户管理-编辑用户-描述等于200个字符</t>
+  </si>
+  <si>
+    <t>{
+    "username":"DesIs200",
+    "realname":"描述等于200个字符",    "email":"DesIs200@udsafe.com.cn",
     "phone":"13811111111",
-    "description":"自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100自动化脚本创建的用户数据DesIsOver100字符总数"
-}</t>
-  </si>
-  <si>
-    <t>用户管理-编辑用户-描述超过100个字符</t>
-  </si>
-  <si>
-    <t>{
-    "username":"DesIsOver100",
-    "realname":"描述超过100个字符",    "email":"DesIsOver100@udsafe.com.cn",
+    "description":"自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200"
+}</t>
+  </si>
+  <si>
+    <t>用户管理-编辑用户-描述超过200个字符</t>
+  </si>
+  <si>
+    <t>{
+    "username":"DesIsOver200",
+    "realname":"描述超过200个字符",    "email":"DesIsOver200@udsafe.com.cn",
     "phone":"13811111111",
-    "description":"自动化脚本更新的用户数据DesIsOver100自动化脚本更新的用户数据DesIsOver100自动化脚本更新的用户数据DesIsOver100自动化脚本更新的用户数据DesIsOver100自动化脚本更新的用户数据DesIsOver100自动化脚本更新的用户数据DesIsOver100自动化脚本更新的用户数据DesIsOver100自动化脚本更新的用户数据DesIsOver100"
+    "description":"自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200自动化脚本创建的用户数据DesIsOver200"
 }</t>
   </si>
   <si>
@@ -2394,8 +2403,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2606,10 +2615,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="2">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F11" s="8">
         <v>3</v>
@@ -2617,19 +2626,19 @@
     </row>
     <row r="12" ht="135" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2">
         <v>1012</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="8">
         <v>3</v>
@@ -2637,13 +2646,13 @@
     </row>
     <row r="13" ht="135" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>1001</v>
@@ -2657,13 +2666,13 @@
     </row>
     <row r="14" ht="135" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2677,13 +2686,13 @@
     </row>
     <row r="15" ht="135" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2">
         <v>1001</v>
@@ -2697,19 +2706,19 @@
     </row>
     <row r="16" ht="135" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F16" s="8">
         <v>3</v>
@@ -2717,13 +2726,13 @@
     </row>
     <row r="17" ht="135" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2">
         <v>1001</v>
@@ -2737,13 +2746,13 @@
     </row>
     <row r="18" ht="135" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2">
         <v>1001</v>
@@ -2757,19 +2766,19 @@
     </row>
     <row r="19" ht="135" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F19" s="8">
         <v>3</v>
@@ -2777,19 +2786,19 @@
     </row>
     <row r="20" ht="135" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2">
-        <v>1001</v>
+        <v>220002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F20" s="8">
         <v>3</v>
@@ -2797,19 +2806,19 @@
     </row>
     <row r="21" ht="135" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2">
-        <v>1001</v>
+        <v>220002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F21" s="8">
         <v>3</v>
@@ -2817,19 +2826,19 @@
     </row>
     <row r="22" ht="135" spans="1:6">
       <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2">
+        <v>220002</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F22" s="8">
         <v>3</v>
@@ -2837,13 +2846,13 @@
     </row>
     <row r="23" ht="135" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2">
         <v>1001</v>
@@ -2857,13 +2866,13 @@
     </row>
     <row r="24" ht="148.5" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -2875,19 +2884,19 @@
     </row>
     <row r="25" ht="148.5" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2">
         <v>1012</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F25" s="8">
         <v>3</v>
@@ -2895,13 +2904,13 @@
     </row>
     <row r="26" ht="135" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -2911,15 +2920,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" ht="175.5" spans="1:6">
+    <row r="27" ht="229.5" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -2929,15 +2938,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" ht="216" spans="1:6">
+    <row r="28" ht="229.5" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2">
         <v>1001</v>
@@ -2996,10 +3005,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3016,10 +3025,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3037,8 +3046,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3074,10 +3083,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3094,10 +3103,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3109,13 +3118,13 @@
     </row>
     <row r="4" customFormat="1" ht="121.5" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -3129,13 +3138,13 @@
     </row>
     <row r="5" customFormat="1" ht="135" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3147,13 +3156,13 @@
     </row>
     <row r="6" customFormat="1" ht="135" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3167,13 +3176,13 @@
     </row>
     <row r="7" ht="121.5" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2">
         <v>1001</v>
@@ -3190,16 +3199,16 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2">
         <v>220002</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
@@ -3207,19 +3216,19 @@
     </row>
     <row r="9" ht="121.5" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2">
         <v>220002</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="F9" s="8">
         <v>3</v>
@@ -3230,16 +3239,16 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2">
         <v>220002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="F10" s="8">
         <v>3</v>
@@ -3247,13 +3256,13 @@
     </row>
     <row r="11" ht="121.5" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D11" s="2">
         <v>1001</v>
@@ -3267,13 +3276,13 @@
     </row>
     <row r="12" ht="135" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3285,19 +3294,19 @@
     </row>
     <row r="13" ht="135" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2">
         <v>1012</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F13" s="8">
         <v>4</v>
@@ -3305,13 +3314,13 @@
     </row>
     <row r="14" ht="121.5" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -3321,15 +3330,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="135" spans="1:6">
+    <row r="15" ht="189" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3339,15 +3348,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="175.5" spans="1:6">
+    <row r="16" ht="189" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2">
         <v>1001</v>
@@ -3406,10 +3415,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3426,16 +3435,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="81" spans="1:6">
@@ -3443,10 +3452,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3503,10 +3512,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3523,16 +3532,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2">
         <v>1039</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -3543,10 +3552,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3558,13 +3567,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="40.5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3579,10 +3588,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3639,10 +3648,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3659,10 +3668,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3680,8 +3689,8 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3716,10 +3725,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3736,10 +3745,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -3753,10 +3762,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -3770,10 +3779,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3785,10 +3794,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3799,13 +3808,13 @@
     </row>
     <row r="7" ht="54" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D7" s="2">
         <v>1001</v>
@@ -3819,10 +3828,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D8" s="2">
         <v>1001</v>
@@ -3833,13 +3842,13 @@
     </row>
     <row r="9" ht="54" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2">
         <v>1001</v>
@@ -3853,10 +3862,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>

--- a/datafiles/userMgtData.xlsx
+++ b/datafiles/userMgtData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="creUser" sheetId="30" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="170">
   <si>
     <t>test_num</t>
   </si>
@@ -644,9 +644,6 @@
     "password":"11112222",
     "confirmPassword":"11112222"
 }</t>
-  </si>
-  <si>
-    <t>手机号不能为空</t>
   </si>
   <si>
     <r>
@@ -2775,30 +2772,28 @@
         <v>64</v>
       </c>
       <c r="D19" s="2">
-        <v>1012</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="20" ht="135" spans="1:6">
       <c r="A20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="D20" s="2">
         <v>220002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="8">
         <v>3</v>
@@ -2806,19 +2801,19 @@
     </row>
     <row r="21" ht="135" spans="1:6">
       <c r="A21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D21" s="2">
         <v>220002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="8">
         <v>3</v>
@@ -2826,19 +2821,19 @@
     </row>
     <row r="22" ht="135" spans="1:6">
       <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="D22" s="2">
         <v>220002</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="8">
         <v>3</v>
@@ -2846,33 +2841,31 @@
     </row>
     <row r="23" ht="135" spans="1:6">
       <c r="A23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D23" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="24" ht="148.5" spans="1:6">
       <c r="A24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -2884,19 +2877,19 @@
     </row>
     <row r="25" ht="148.5" spans="1:6">
       <c r="A25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="D25" s="2">
         <v>1012</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="8">
         <v>3</v>
@@ -2904,13 +2897,13 @@
     </row>
     <row r="26" ht="135" spans="1:6">
       <c r="A26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -2922,13 +2915,13 @@
     </row>
     <row r="27" ht="229.5" spans="1:6">
       <c r="A27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -2940,13 +2933,13 @@
     </row>
     <row r="28" ht="229.5" spans="1:6">
       <c r="A28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D28" s="2">
         <v>1001</v>
@@ -3005,10 +2998,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3025,10 +3018,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3046,8 +3039,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3083,10 +3076,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3103,10 +3096,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3118,13 +3111,13 @@
     </row>
     <row r="4" customFormat="1" ht="121.5" spans="1:6">
       <c r="A4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -3138,13 +3131,13 @@
     </row>
     <row r="5" customFormat="1" ht="135" spans="1:6">
       <c r="A5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3156,13 +3149,13 @@
     </row>
     <row r="6" customFormat="1" ht="135" spans="1:6">
       <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3176,20 +3169,18 @@
     </row>
     <row r="7" ht="121.5" spans="1:6">
       <c r="A7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="D7" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="8">
         <v>3</v>
       </c>
@@ -3199,16 +3190,16 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="D8" s="2">
         <v>220002</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
@@ -3216,19 +3207,19 @@
     </row>
     <row r="9" ht="121.5" spans="1:6">
       <c r="A9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="D9" s="2">
         <v>220002</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="8">
         <v>3</v>
@@ -3239,16 +3230,16 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="D10" s="2">
         <v>220002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="8">
         <v>3</v>
@@ -3256,20 +3247,18 @@
     </row>
     <row r="11" ht="121.5" spans="1:6">
       <c r="A11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="D11" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="8">
         <v>4</v>
       </c>
@@ -3279,10 +3268,10 @@
         <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3294,19 +3283,19 @@
     </row>
     <row r="13" ht="135" spans="1:6">
       <c r="A13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D13" s="2">
         <v>1012</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="8">
         <v>4</v>
@@ -3317,10 +3306,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -3332,13 +3321,13 @@
     </row>
     <row r="15" ht="189" spans="1:6">
       <c r="A15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3353,10 +3342,10 @@
         <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="D16" s="2">
         <v>1001</v>
@@ -3415,10 +3404,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3435,16 +3424,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="81" spans="1:6">
@@ -3452,10 +3441,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3512,10 +3501,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3532,16 +3521,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2">
         <v>1039</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -3552,10 +3541,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3567,13 +3556,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="40.5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3588,10 +3577,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3648,10 +3637,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3668,10 +3657,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3689,8 +3678,8 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3725,10 +3714,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3745,10 +3734,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -3762,10 +3751,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -3779,10 +3768,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3794,10 +3783,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3808,13 +3797,13 @@
     </row>
     <row r="7" ht="54" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="D7" s="2">
         <v>1001</v>
@@ -3828,10 +3817,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="D8" s="2">
         <v>1001</v>
@@ -3842,13 +3831,13 @@
     </row>
     <row r="9" ht="54" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="2">
         <v>1001</v>
@@ -3862,10 +3851,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>

--- a/datafiles/userMgtData.xlsx
+++ b/datafiles/userMgtData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="creUser" sheetId="30" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="171">
   <si>
     <t>test_num</t>
   </si>
@@ -570,6 +570,9 @@
     "password":"111122",
     "confirmPassword":"111"
 }</t>
+  </si>
+  <si>
+    <t>两次密码不一样</t>
   </si>
   <si>
     <r>
@@ -2400,8 +2403,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2632,7 +2635,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="2">
-        <v>1012</v>
+        <v>218001</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>42</v>
@@ -2712,7 +2715,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="2">
-        <v>1012</v>
+        <v>218002</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>55</v>
@@ -2732,10 +2735,10 @@
         <v>58</v>
       </c>
       <c r="D17" s="2">
-        <v>1001</v>
+        <v>218000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
@@ -2743,19 +2746,19 @@
     </row>
     <row r="18" ht="135" spans="1:6">
       <c r="A18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2">
+        <v>218000</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F18" s="8">
         <v>3</v>
@@ -2763,13 +2766,13 @@
     </row>
     <row r="19" ht="135" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -2781,19 +2784,19 @@
     </row>
     <row r="20" ht="135" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2">
         <v>220002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" s="8">
         <v>3</v>
@@ -2801,19 +2804,19 @@
     </row>
     <row r="21" ht="135" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2">
         <v>220002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="8">
         <v>3</v>
@@ -2821,19 +2824,19 @@
     </row>
     <row r="22" ht="135" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2">
         <v>220002</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F22" s="8">
         <v>3</v>
@@ -2841,13 +2844,13 @@
     </row>
     <row r="23" ht="135" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -2859,13 +2862,13 @@
     </row>
     <row r="24" ht="148.5" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -2877,19 +2880,19 @@
     </row>
     <row r="25" ht="148.5" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2">
         <v>1012</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="8">
         <v>3</v>
@@ -2897,13 +2900,13 @@
     </row>
     <row r="26" ht="135" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -2915,13 +2918,13 @@
     </row>
     <row r="27" ht="229.5" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -2933,13 +2936,13 @@
     </row>
     <row r="28" ht="229.5" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2">
         <v>1001</v>
@@ -2998,10 +3001,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3018,10 +3021,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3039,8 +3042,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3076,10 +3079,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3096,10 +3099,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3111,13 +3114,13 @@
     </row>
     <row r="4" customFormat="1" ht="121.5" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -3131,13 +3134,13 @@
     </row>
     <row r="5" customFormat="1" ht="135" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3149,13 +3152,13 @@
     </row>
     <row r="6" customFormat="1" ht="135" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3169,13 +3172,13 @@
     </row>
     <row r="7" ht="121.5" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3190,16 +3193,16 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2">
         <v>220002</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
@@ -3207,19 +3210,19 @@
     </row>
     <row r="9" ht="121.5" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2">
         <v>220002</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" s="8">
         <v>3</v>
@@ -3230,16 +3233,16 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2">
         <v>220002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" s="8">
         <v>3</v>
@@ -3247,13 +3250,13 @@
     </row>
     <row r="11" ht="121.5" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -3268,10 +3271,10 @@
         <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3283,19 +3286,19 @@
     </row>
     <row r="13" ht="135" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2">
         <v>1012</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="8">
         <v>4</v>
@@ -3306,10 +3309,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -3321,13 +3324,13 @@
     </row>
     <row r="15" ht="189" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3342,10 +3345,10 @@
         <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2">
         <v>1001</v>
@@ -3404,10 +3407,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3424,16 +3427,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="81" spans="1:6">
@@ -3441,10 +3444,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3501,10 +3504,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3521,16 +3524,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="D3" s="2">
         <v>1039</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -3541,10 +3544,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3556,13 +3559,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="40.5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3577,10 +3580,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3637,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3657,10 +3660,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3714,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3734,10 +3737,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -3751,10 +3754,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -3768,10 +3771,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3783,10 +3786,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3797,13 +3800,13 @@
     </row>
     <row r="7" ht="54" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D7" s="2">
         <v>1001</v>
@@ -3817,10 +3820,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D8" s="2">
         <v>1001</v>
@@ -3831,13 +3834,13 @@
     </row>
     <row r="9" ht="54" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2">
         <v>1001</v>
@@ -3851,10 +3854,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>

--- a/datafiles/userMgtData.xlsx
+++ b/datafiles/userMgtData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="creUser" sheetId="30" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="172">
   <si>
     <t>test_num</t>
   </si>
@@ -104,7 +104,7 @@
     <t>用户管理-新建用户-用户名重名</t>
   </si>
   <si>
-    <t>用户名已存在</t>
+    <t>用户已经存在</t>
   </si>
   <si>
     <r>
@@ -421,6 +421,9 @@
 }</t>
   </si>
   <si>
+    <t>密码长度不能小于6位且不能大于18位</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -937,8 +940,8 @@
   </si>
   <si>
     <t>{
-    "username":"DesIs100",
-    "realname":"描述为100个字符",    "email":"DesIs100@udsafe.com.cn",
+    "username":"DesIs200",
+    "realname":"描述为200个字符",    "email":"DesIs100@udsafe.com.cn",
     "phone":"13811111111",
     "description":"自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200自动化脚本创建的用户数据DesIs200",
     "state":"1",
@@ -2403,8 +2406,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2484,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>1043</v>
+        <v>220021</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>15</v>
@@ -2635,7 +2638,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="2">
-        <v>218001</v>
+        <v>1050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>42</v>
@@ -2655,10 +2658,10 @@
         <v>45</v>
       </c>
       <c r="D13" s="2">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F13" s="8">
         <v>3</v>
@@ -2666,13 +2669,13 @@
     </row>
     <row r="14" ht="135" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2686,13 +2689,13 @@
     </row>
     <row r="15" ht="135" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2">
         <v>1001</v>
@@ -2706,19 +2709,19 @@
     </row>
     <row r="16" ht="135" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2">
-        <v>218002</v>
+        <v>220025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="8">
         <v>3</v>
@@ -2726,19 +2729,19 @@
     </row>
     <row r="17" ht="135" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2">
-        <v>218000</v>
+        <v>220024</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
@@ -2746,19 +2749,19 @@
     </row>
     <row r="18" ht="135" spans="1:6">
       <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2">
+        <v>220024</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="2">
-        <v>218000</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="F18" s="8">
         <v>3</v>
@@ -2766,13 +2769,13 @@
     </row>
     <row r="19" ht="135" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -2784,19 +2787,19 @@
     </row>
     <row r="20" ht="135" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2">
         <v>220002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8">
         <v>3</v>
@@ -2804,19 +2807,19 @@
     </row>
     <row r="21" ht="135" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2">
         <v>220002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="8">
         <v>3</v>
@@ -2824,19 +2827,19 @@
     </row>
     <row r="22" ht="135" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2">
         <v>220002</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F22" s="8">
         <v>3</v>
@@ -2844,13 +2847,13 @@
     </row>
     <row r="23" ht="135" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -2862,13 +2865,13 @@
     </row>
     <row r="24" ht="148.5" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -2880,19 +2883,19 @@
     </row>
     <row r="25" ht="148.5" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2">
         <v>1012</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="8">
         <v>3</v>
@@ -2900,13 +2903,13 @@
     </row>
     <row r="26" ht="135" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -2918,13 +2921,13 @@
     </row>
     <row r="27" ht="229.5" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -2936,13 +2939,13 @@
     </row>
     <row r="28" ht="229.5" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2">
         <v>1001</v>
@@ -3001,10 +3004,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3021,10 +3024,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3042,7 +3045,7 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3079,10 +3082,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3099,10 +3102,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3114,13 +3117,13 @@
     </row>
     <row r="4" customFormat="1" ht="121.5" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -3134,13 +3137,13 @@
     </row>
     <row r="5" customFormat="1" ht="135" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3152,13 +3155,13 @@
     </row>
     <row r="6" customFormat="1" ht="135" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3172,13 +3175,13 @@
     </row>
     <row r="7" ht="121.5" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3193,16 +3196,16 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2">
         <v>220002</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
@@ -3210,19 +3213,19 @@
     </row>
     <row r="9" ht="121.5" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2">
         <v>220002</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" s="8">
         <v>3</v>
@@ -3233,16 +3236,16 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D10" s="2">
         <v>220002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="8">
         <v>3</v>
@@ -3250,13 +3253,13 @@
     </row>
     <row r="11" ht="121.5" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -3271,10 +3274,10 @@
         <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3286,19 +3289,19 @@
     </row>
     <row r="13" ht="135" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2">
         <v>1012</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="8">
         <v>4</v>
@@ -3306,13 +3309,13 @@
     </row>
     <row r="14" ht="121.5" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -3324,13 +3327,13 @@
     </row>
     <row r="15" ht="189" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3342,13 +3345,13 @@
     </row>
     <row r="16" ht="189" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2">
         <v>1001</v>
@@ -3407,10 +3410,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3427,16 +3430,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="81" spans="1:6">
@@ -3444,10 +3447,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3468,7 +3471,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -3504,10 +3507,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3524,16 +3527,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D3" s="2">
         <v>1039</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -3544,10 +3547,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3559,13 +3562,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="40.5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3580,10 +3583,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3640,10 +3643,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3660,10 +3663,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3682,7 +3685,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3717,10 +3720,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3737,10 +3740,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -3754,16 +3757,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -3771,10 +3774,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3786,10 +3789,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -3800,13 +3803,13 @@
     </row>
     <row r="7" ht="54" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" s="2">
         <v>1001</v>
@@ -3820,27 +3823,27 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D8" s="2">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2">
         <v>1001</v>
@@ -3854,10 +3857,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
